--- a/static/resource/Further Explanation of Decision Support System.xlsx
+++ b/static/resource/Further Explanation of Decision Support System.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damien Kavanagh\Desktop\Final Edits 08.01.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damien Kavanagh\Desktop\Capstone 2019\Edits needed for the DSS\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8790"/>
   </bookViews>
   <sheets>
     <sheet name="CM Constraints" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Time</t>
   </si>
@@ -37,76 +37,34 @@
     <t>Private</t>
   </si>
   <si>
-    <t>High Level</t>
-  </si>
-  <si>
-    <t>Major Importance</t>
-  </si>
-  <si>
     <t>PPP</t>
   </si>
   <si>
-    <t>4D BIM Knowledge -                                                                                               Limited</t>
-  </si>
-  <si>
-    <t>Intermediate Level</t>
-  </si>
-  <si>
-    <t>Important</t>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
-    <t>Beginner Level</t>
-  </si>
-  <si>
-    <t>Not so Important</t>
-  </si>
-  <si>
     <t>Slightly Restricted</t>
   </si>
   <si>
     <t>Very Influencial</t>
   </si>
   <si>
-    <t>Precise</t>
-  </si>
-  <si>
     <t>Restricted</t>
   </si>
   <si>
-    <t>Stakeholder involvement -                                                                Large Involvement</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Influencial</t>
   </si>
   <si>
-    <t>Narrow Margin</t>
-  </si>
-  <si>
     <t>Severely Restricted</t>
   </si>
   <si>
     <t>Little Influence</t>
   </si>
   <si>
-    <t>Standard Margin</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Minimal</t>
-  </si>
-  <si>
     <t>Site Logistics -</t>
-  </si>
-  <si>
-    <t>4D BIM Knowledge -</t>
   </si>
   <si>
     <t>Stakeholder Involvement -</t>
@@ -240,76 +198,154 @@
     <t xml:space="preserve">Schedule vs actual (WIP) </t>
   </si>
   <si>
-    <t>Business transparency -                                                                     High Level Needed</t>
-  </si>
-  <si>
-    <t>Return on Investment -                                                                          High Importance</t>
-  </si>
-  <si>
-    <t>Bill of Quantities  -                                                                                                     Precise</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Animations</t>
   </si>
   <si>
-    <t>Resource control -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource planning -   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Very Influencial</t>
-  </si>
-  <si>
-    <t>Small amount of Resources</t>
-  </si>
-  <si>
-    <t>Moderate amount of Resources</t>
-  </si>
-  <si>
-    <t>Large amount of Resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Beginner Level</t>
-  </si>
-  <si>
     <t>Example of Project Specific Constraints based on (study) Dublin (IRE) Local Authority BIM Project</t>
   </si>
   <si>
     <t xml:space="preserve">Site logistics -                                                                                                                        Restricted </t>
   </si>
   <si>
-    <t>Resource control -                                                                                                                          Total</t>
-  </si>
-  <si>
-    <t>4D BIM knowledge -                                                                                                      Beginner Level</t>
-  </si>
-  <si>
     <t>Stakeholder involvement -                                                                                        Very Influencial</t>
   </si>
   <si>
-    <t>Resource planning -                                                                                           Moderate Resources</t>
-  </si>
-  <si>
-    <t>Bill of Quantities  -                                                                                                                    Precise</t>
-  </si>
-  <si>
-    <t>Return on Investment -                                                                                             High Importance</t>
-  </si>
-  <si>
-    <t>Business transparency -                                                                                       High Level Needed</t>
-  </si>
-  <si>
-    <t>Procurement -                                                                                                                                 Public</t>
-  </si>
-  <si>
-    <t>Procurement -</t>
-  </si>
-  <si>
     <t>CM Constraints based on Specific Project</t>
   </si>
   <si>
     <t>Quality</t>
+  </si>
+  <si>
+    <t>Sector Type -</t>
+  </si>
+  <si>
+    <t>Resource Control -                                                                     High Level Needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Procurement Method -                                                                                                     Precise</t>
+  </si>
+  <si>
+    <t>0 - 1 Year</t>
+  </si>
+  <si>
+    <t>2 + Years</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>Design &amp; Build</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measured </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Budget-                                                                          </t>
+  </si>
+  <si>
+    <t>Technical Complexity -                                                                                               Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Footprint -   </t>
+  </si>
+  <si>
+    <t>2 Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Procurement Method -                                                                                               Precise</t>
+  </si>
+  <si>
+    <t>Project Budget-                                                                         High Importance</t>
+  </si>
+  <si>
+    <t>Resource Control -                                                                   High Level Needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Complexity -   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Footprint -    </t>
+  </si>
+  <si>
+    <t>Balanced</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Carbon Credits Used</t>
+  </si>
+  <si>
+    <t>Sector Type  -                                                                                                                                 Public</t>
+  </si>
+  <si>
+    <t>Project Budget-                                                                                                            High Importance</t>
+  </si>
+  <si>
+    <t>Procurement Method -                                                                                                  Design &amp; Build</t>
+  </si>
+  <si>
+    <t>Resource Control -                                                                                                                          Total</t>
+  </si>
+  <si>
+    <t>Carbon Footprint -                                                                                                                Benchmark</t>
+  </si>
+  <si>
+    <t>Project Duration-                                                                                                                    2 Years</t>
+  </si>
+  <si>
+    <t>Project Duration-</t>
+  </si>
+  <si>
+    <t>Project Duration -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Design &amp; Build</t>
+  </si>
+  <si>
+    <t>Straightforward</t>
+  </si>
+  <si>
+    <t>Difficult</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Straightforward</t>
+  </si>
+  <si>
+    <t>Technical Complexity -                                                                                                 Straightforward</t>
+  </si>
+  <si>
+    <t>Schedule vs actual (WIP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 - 2 Years</t>
+  </si>
+  <si>
+    <t>US$ 0 - 1 million</t>
+  </si>
+  <si>
+    <t>US$ 1 - 5 million</t>
+  </si>
+  <si>
+    <t>US$ 5 + million</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Very Influential</t>
+  </si>
+  <si>
+    <t>Stakeholder Involvement -                                                                Large Involvement</t>
   </si>
 </sst>
 </file>
@@ -606,7 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -712,6 +748,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:L19"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,28 +1061,28 @@
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
-      <c r="F3" s="47" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="F3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="J3" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="J3" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -1061,51 +1098,51 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="6" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1115,56 +1152,56 @@
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="14" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1175,92 +1212,94 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
+      <c r="B19" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="41" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="J21" s="41" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1276,25 +1315,25 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="6" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="6" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1310,25 +1349,25 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -1342,6 +1381,7 @@
     <mergeCell ref="B19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1349,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,19 +1406,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1386,20 +1426,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="22" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="22" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1411,19 +1451,19 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="23"/>
@@ -1432,15 +1472,15 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="25" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1455,20 +1495,20 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="20" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="22" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1480,14 +1520,14 @@
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="23" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1499,38 +1539,38 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="25" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="25" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="20" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1542,14 +1582,14 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="23" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1561,20 +1601,20 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="25" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="25" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1625,7 +1665,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="29" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -1635,7 +1675,7 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="29" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="30"/>
@@ -1643,7 +1683,7 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="29" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -1663,13 +1703,13 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="29" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="43" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -1691,13 +1731,13 @@
     <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="32" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="30"/>
       <c r="F7" s="27"/>
       <c r="G7" s="44" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="34"/>
@@ -1719,13 +1759,13 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="32" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="30"/>
       <c r="F9" s="27"/>
       <c r="G9" s="45" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -1747,13 +1787,13 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="32" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="30"/>
       <c r="F11" s="27"/>
       <c r="G11" s="43" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1774,13 +1814,13 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="29" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="30"/>
       <c r="F13" s="27"/>
       <c r="G13" s="44" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H13" s="27"/>
       <c r="J13" s="30"/>
@@ -1799,13 +1839,13 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="37" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="30"/>
       <c r="F15" s="27"/>
       <c r="G15" s="45" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H15" s="27"/>
       <c r="J15" s="30"/>
@@ -1824,13 +1864,13 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="29" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="30"/>
       <c r="F17" s="27"/>
       <c r="G17" s="43" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H17" s="27"/>
       <c r="J17" s="27"/>
@@ -1850,13 +1890,13 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="38" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="30"/>
       <c r="F19" s="27"/>
       <c r="G19" s="44" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H19" s="27"/>
       <c r="J19" s="30"/>
@@ -1879,7 +1919,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="45" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H21" s="27"/>
       <c r="J21" s="30"/>
@@ -1923,7 +1963,7 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="46" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H25" s="27"/>
       <c r="J25" s="30"/>

--- a/static/resource/Further Explanation of Decision Support System.xlsx
+++ b/static/resource/Further Explanation of Decision Support System.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>Time</t>
   </si>
@@ -46,13 +46,7 @@
     <t>Slightly Restricted</t>
   </si>
   <si>
-    <t>Very Influencial</t>
-  </si>
-  <si>
     <t>Restricted</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influencial</t>
   </si>
   <si>
     <t>Severely Restricted</t>
@@ -255,9 +249,6 @@
     <t xml:space="preserve">Carbon Footprint -   </t>
   </si>
   <si>
-    <t>2 Years</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Procurement Method -                                                                                               Precise</t>
   </si>
   <si>
@@ -285,18 +276,12 @@
     <t>Sector Type  -                                                                                                                                 Public</t>
   </si>
   <si>
-    <t>Project Budget-                                                                                                            High Importance</t>
-  </si>
-  <si>
     <t>Procurement Method -                                                                                                  Design &amp; Build</t>
   </si>
   <si>
     <t>Resource Control -                                                                                                                          Total</t>
   </si>
   <si>
-    <t>Carbon Footprint -                                                                                                                Benchmark</t>
-  </si>
-  <si>
     <t>Project Duration-                                                                                                                    2 Years</t>
   </si>
   <si>
@@ -309,21 +294,6 @@
     <t xml:space="preserve">                Design &amp; Build</t>
   </si>
   <si>
-    <t>Straightforward</t>
-  </si>
-  <si>
-    <t>Difficult</t>
-  </si>
-  <si>
-    <t>Complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Straightforward</t>
-  </si>
-  <si>
-    <t>Technical Complexity -                                                                                                 Straightforward</t>
-  </si>
-  <si>
     <t>Schedule vs actual (WIP)</t>
   </si>
   <si>
@@ -346,6 +316,33 @@
   </si>
   <si>
     <t>Stakeholder Involvement -                                                                Large Involvement</t>
+  </si>
+  <si>
+    <t>Low Level</t>
+  </si>
+  <si>
+    <t>High Level</t>
+  </si>
+  <si>
+    <t>Average Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Influential</t>
+  </si>
+  <si>
+    <t>Very Influential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Low Level</t>
+  </si>
+  <si>
+    <t>Project Budget-                                                                                                               US$ 5 + million</t>
+  </si>
+  <si>
+    <t>Technical Complexity -                                                                                                           Low Level</t>
+  </si>
+  <si>
+    <t>Carbon Footprint -                                                                                                                   Balanced</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1076,7 @@
       <c r="G3" s="49"/>
       <c r="H3" s="50"/>
       <c r="J3" s="48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="50"/>
@@ -1098,34 +1095,34 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1137,12 +1134,12 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1157,51 +1154,51 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="13" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="14" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1212,61 +1209,61 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -1281,25 +1278,25 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1315,25 +1312,25 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1349,25 +1346,25 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -1390,7 +1387,7 @@
   <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,19 +1403,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1426,20 +1423,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1451,19 +1448,19 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="23"/>
@@ -1472,15 +1469,15 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="25" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1495,20 +1492,20 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1520,14 +1517,14 @@
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1539,38 +1536,38 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1582,14 +1579,14 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1601,20 +1598,20 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1665,7 +1662,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -1675,7 +1672,7 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="30"/>
@@ -1683,7 +1680,7 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -1703,13 +1700,13 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -1731,13 +1728,13 @@
     <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="30"/>
       <c r="F7" s="27"/>
       <c r="G7" s="44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="34"/>
@@ -1759,13 +1756,13 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="30"/>
       <c r="F9" s="27"/>
       <c r="G9" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -1787,13 +1784,13 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="30"/>
       <c r="F11" s="27"/>
       <c r="G11" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1814,13 +1811,13 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="30"/>
       <c r="F13" s="27"/>
       <c r="G13" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="27"/>
       <c r="J13" s="30"/>
@@ -1839,13 +1836,13 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="30"/>
       <c r="F15" s="27"/>
       <c r="G15" s="45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H15" s="27"/>
       <c r="J15" s="30"/>
@@ -1864,13 +1861,13 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="30"/>
       <c r="F17" s="27"/>
       <c r="G17" s="43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="27"/>
       <c r="J17" s="27"/>
@@ -1890,13 +1887,13 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="30"/>
       <c r="F19" s="27"/>
       <c r="G19" s="44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" s="27"/>
       <c r="J19" s="30"/>
@@ -1919,7 +1916,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21" s="27"/>
       <c r="J21" s="30"/>
@@ -1963,7 +1960,7 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H25" s="27"/>
       <c r="J25" s="30"/>

--- a/static/resource/Further Explanation of Decision Support System.xlsx
+++ b/static/resource/Further Explanation of Decision Support System.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damien Kavanagh\Desktop\Capstone 2019\Edits needed for the DSS\New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damien Kavanagh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CM Constraints" sheetId="1" r:id="rId1"/>
@@ -282,9 +282,6 @@
     <t>Resource Control -                                                                                                                          Total</t>
   </si>
   <si>
-    <t>Project Duration-                                                                                                                    2 Years</t>
-  </si>
-  <si>
     <t>Project Duration-</t>
   </si>
   <si>
@@ -333,16 +330,19 @@
     <t>Very Influential</t>
   </si>
   <si>
-    <t xml:space="preserve">     Low Level</t>
-  </si>
-  <si>
     <t>Project Budget-                                                                                                               US$ 5 + million</t>
   </si>
   <si>
-    <t>Technical Complexity -                                                                                                           Low Level</t>
-  </si>
-  <si>
     <t>Carbon Footprint -                                                                                                                   Balanced</t>
+  </si>
+  <si>
+    <t>Project Duration-                                                                                                                    2 + Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Average Level</t>
+  </si>
+  <si>
+    <t>Technical Complexity -                                                                                                   Average Level</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
@@ -1174,14 +1174,14 @@
         <v>66</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -1193,12 +1193,12 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1219,16 +1219,16 @@
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>57</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -1289,14 +1289,14 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" s="41" t="s">
         <v>72</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="40" t="s">
         <v>11</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10" t="s">
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="22" t="s">
@@ -1469,11 +1469,11 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="25" t="s">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="23" t="s">
@@ -1559,7 +1559,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="16" t="s">
@@ -1598,7 +1598,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="25" t="s">

--- a/static/resource/Further Explanation of Decision Support System.xlsx
+++ b/static/resource/Further Explanation of Decision Support System.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="8790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CM Constraints" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>Time</t>
   </si>
@@ -37,28 +37,73 @@
     <t>Private</t>
   </si>
   <si>
-    <t>PPP</t>
+    <t>High Level</t>
+  </si>
+  <si>
+    <t>Major Importance</t>
+  </si>
+  <si>
+    <t>4D BIM Knowledge -                                                                                               Limited</t>
+  </si>
+  <si>
+    <t>Intermediate Level</t>
+  </si>
+  <si>
+    <t>Important</t>
   </si>
   <si>
     <t>Public</t>
   </si>
   <si>
+    <t>Beginner Level</t>
+  </si>
+  <si>
+    <t>Not so Important</t>
+  </si>
+  <si>
     <t>Slightly Restricted</t>
   </si>
   <si>
+    <t>Very Influencial</t>
+  </si>
+  <si>
+    <t>Precise</t>
+  </si>
+  <si>
     <t>Restricted</t>
   </si>
   <si>
+    <t>Stakeholder involvement -                                                                Large Involvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Influencial</t>
+  </si>
+  <si>
+    <t>Narrow Margin</t>
+  </si>
+  <si>
     <t>Severely Restricted</t>
   </si>
   <si>
     <t>Little Influence</t>
   </si>
   <si>
+    <t>Standard Margin</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Minimal</t>
+  </si>
+  <si>
     <t>Site Logistics -</t>
+  </si>
+  <si>
+    <t>4D BIM Knowledge -</t>
   </si>
   <si>
     <t>Stakeholder Involvement -</t>
@@ -192,7 +237,34 @@
     <t xml:space="preserve">Schedule vs actual (WIP) </t>
   </si>
   <si>
-    <t xml:space="preserve"> Animations</t>
+    <t>Business transparency -                                                                     High Level Needed</t>
+  </si>
+  <si>
+    <t>Return on Investment -                                                                          High Importance</t>
+  </si>
+  <si>
+    <t>Bill of Quantities  -                                                                                                     Precise</t>
+  </si>
+  <si>
+    <t>Resource control -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource planning -   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Very Influencial</t>
+  </si>
+  <si>
+    <t>Small amount of Resources</t>
+  </si>
+  <si>
+    <t>Moderate amount of Resources</t>
+  </si>
+  <si>
+    <t>Large amount of Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Beginner Level</t>
   </si>
   <si>
     <t>Example of Project Specific Constraints based on (study) Dublin (IRE) Local Authority BIM Project</t>
@@ -201,148 +273,49 @@
     <t xml:space="preserve">Site logistics -                                                                                                                        Restricted </t>
   </si>
   <si>
+    <t>Resource control -                                                                                                                          Total</t>
+  </si>
+  <si>
+    <t>4D BIM knowledge -                                                                                                      Beginner Level</t>
+  </si>
+  <si>
     <t>Stakeholder involvement -                                                                                        Very Influencial</t>
   </si>
   <si>
+    <t>Resource planning -                                                                                           Moderate Resources</t>
+  </si>
+  <si>
+    <t>Bill of Quantities  -                                                                                                                    Precise</t>
+  </si>
+  <si>
+    <t>Return on Investment -                                                                                             High Importance</t>
+  </si>
+  <si>
+    <t>Business transparency -                                                                                       High Level Needed</t>
+  </si>
+  <si>
     <t>CM Constraints based on Specific Project</t>
   </si>
   <si>
     <t>Quality</t>
   </si>
   <si>
-    <t>Sector Type -</t>
-  </si>
-  <si>
-    <t>Resource Control -                                                                     High Level Needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Procurement Method -                                                                                                     Precise</t>
-  </si>
-  <si>
-    <t>0 - 1 Year</t>
-  </si>
-  <si>
-    <t>2 + Years</t>
-  </si>
-  <si>
-    <t>Traditional</t>
-  </si>
-  <si>
-    <t>Design &amp; Build</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measured </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Budget-                                                                          </t>
-  </si>
-  <si>
-    <t>Technical Complexity -                                                                                               Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Footprint -   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Procurement Method -                                                                                               Precise</t>
-  </si>
-  <si>
-    <t>Project Budget-                                                                         High Importance</t>
-  </si>
-  <si>
-    <t>Resource Control -                                                                   High Level Needed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Complexity -   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Footprint -    </t>
-  </si>
-  <si>
-    <t>Balanced</t>
-  </si>
-  <si>
-    <t>Benchmark</t>
-  </si>
-  <si>
-    <t>Carbon Credits Used</t>
-  </si>
-  <si>
-    <t>Sector Type  -                                                                                                                                 Public</t>
-  </si>
-  <si>
-    <t>Procurement Method -                                                                                                  Design &amp; Build</t>
-  </si>
-  <si>
-    <t>Resource Control -                                                                                                                          Total</t>
-  </si>
-  <si>
-    <t>Project Duration-</t>
-  </si>
-  <si>
-    <t>Project Duration -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Design &amp; Build</t>
-  </si>
-  <si>
-    <t>Schedule vs actual (WIP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 - 2 Years</t>
-  </si>
-  <si>
-    <t>US$ 0 - 1 million</t>
-  </si>
-  <si>
-    <t>US$ 1 - 5 million</t>
-  </si>
-  <si>
-    <t>US$ 5 + million</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Very Influential</t>
-  </si>
-  <si>
-    <t>Stakeholder Involvement -                                                                Large Involvement</t>
-  </si>
-  <si>
-    <t>Low Level</t>
-  </si>
-  <si>
-    <t>High Level</t>
-  </si>
-  <si>
-    <t>Average Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Influential</t>
-  </si>
-  <si>
-    <t>Very Influential</t>
-  </si>
-  <si>
-    <t>Project Budget-                                                                                                               US$ 5 + million</t>
-  </si>
-  <si>
-    <t>Carbon Footprint -                                                                                                                   Balanced</t>
-  </si>
-  <si>
-    <t>Project Duration-                                                                                                                    2 + Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Average Level</t>
-  </si>
-  <si>
-    <t>Technical Complexity -                                                                                                   Average Level</t>
+    <t>Sector Type Contract  -</t>
+  </si>
+  <si>
+    <t>Sector Type Contract -</t>
+  </si>
+  <si>
+    <t>Public Private Partnership (PPP)</t>
+  </si>
+  <si>
+    <t>Sector Type Contract -                                                                                                                   Public</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cost Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cost analysis</t>
   </si>
 </sst>
 </file>
@@ -639,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -745,7 +718,6 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1047,39 +1019,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L26"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="F3" s="48" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="F3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="J3" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="J3" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -1095,51 +1067,51 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="6" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1149,56 +1121,56 @@
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="13" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="14" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1209,94 +1181,92 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="B19" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="41" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="47" t="s">
-        <v>82</v>
-      </c>
+      <c r="H21" s="4"/>
       <c r="J21" s="41" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="4" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1312,25 +1282,25 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="6" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -1346,25 +1316,25 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -1378,7 +1348,6 @@
     <mergeCell ref="B19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1386,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,19 +1372,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1423,20 +1392,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="22" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="22" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1448,19 +1417,19 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="23" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="23"/>
@@ -1469,15 +1438,15 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="25" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1492,20 +1461,20 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="20" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="22" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1517,14 +1486,14 @@
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="23" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1536,38 +1505,38 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="25" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="25" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="20" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="20" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1579,14 +1548,14 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="23" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1598,20 +1567,20 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="25" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="25" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C31" s="11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1626,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1631,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="29" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
@@ -1672,7 +1641,7 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="29" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="30"/>
@@ -1680,7 +1649,7 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="29" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -1700,13 +1669,13 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
       <c r="C5" s="29" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="43" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -1728,13 +1697,13 @@
     <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="32" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="30"/>
       <c r="F7" s="27"/>
       <c r="G7" s="44" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="34"/>
@@ -1756,13 +1725,13 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="30"/>
       <c r="F9" s="27"/>
       <c r="G9" s="45" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -1784,13 +1753,13 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="32" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="30"/>
       <c r="F11" s="27"/>
       <c r="G11" s="43" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1811,13 +1780,13 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="29" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="30"/>
       <c r="F13" s="27"/>
       <c r="G13" s="44" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H13" s="27"/>
       <c r="J13" s="30"/>
@@ -1836,13 +1805,13 @@
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="37" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="30"/>
       <c r="F15" s="27"/>
       <c r="G15" s="45" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="H15" s="27"/>
       <c r="J15" s="30"/>
@@ -1861,13 +1830,13 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="29" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="30"/>
       <c r="F17" s="27"/>
       <c r="G17" s="43" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H17" s="27"/>
       <c r="J17" s="27"/>
@@ -1887,13 +1856,13 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="38" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="30"/>
       <c r="F19" s="27"/>
       <c r="G19" s="44" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H19" s="27"/>
       <c r="J19" s="30"/>
@@ -1916,7 +1885,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="45" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H21" s="27"/>
       <c r="J21" s="30"/>
@@ -1960,7 +1929,7 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="46" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H25" s="27"/>
       <c r="J25" s="30"/>

--- a/static/resource/Further Explanation of Decision Support System.xlsx
+++ b/static/resource/Further Explanation of Decision Support System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Capstone 26.03.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED195848-1375-412F-B2D7-0D0944258026}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C1423C7-FC46-4FE0-B5F4-5114DBB0FA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constraint variables" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="DSS to facilitate 4D BIM choice" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="144">
   <si>
     <t>Time</t>
   </si>
@@ -65,44 +64,12 @@
     <t>Simulation</t>
   </si>
   <si>
-    <t>Project Title:</t>
-  </si>
-  <si>
     <t>Scores for Project Based  Software Application Atributes Between 0 - 10</t>
   </si>
   <si>
-    <t>Project Location:</t>
-  </si>
-  <si>
-    <t>Local Authority:</t>
-  </si>
-  <si>
     <t>Individual Project Involvement:</t>
   </si>
   <si>
-    <t>4D Software Application Used:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Date of Project:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    Software Application Version:</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -143,9 +110,6 @@
   </si>
   <si>
     <t>Aggregate score</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Attributes based on requirement</t>
   </si>
   <si>
     <t>Site logistics -</t>
@@ -468,9 +432,6 @@
     <t>Decision Support System to facilitate choice Of 4D BIM software application</t>
   </si>
   <si>
-    <t>Find aggregate score when using Decision Support System</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -537,6 +498,42 @@
   </si>
   <si>
     <t xml:space="preserve">                    Attributes based on project requirement</t>
+  </si>
+  <si>
+    <t>Project Title &amp; Organization:</t>
+  </si>
+  <si>
+    <t>Organization URL:</t>
+  </si>
+  <si>
+    <t>Country:</t>
+  </si>
+  <si>
+    <t>Date of Project Completion</t>
+  </si>
+  <si>
+    <t>4D Software Application Used</t>
+  </si>
+  <si>
+    <t>Software Application Version</t>
+  </si>
+  <si>
+    <t>Specific Project defined Award(s) won</t>
+  </si>
+  <si>
+    <t>City:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Project Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Specific Project  Construction Management Constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          4D Software Application Attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Construction Management Constraints</t>
   </si>
 </sst>
 </file>
@@ -712,12 +709,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Bahnschrift Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bahnschrift Light"/>
@@ -751,6 +742,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1138,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1148,21 +1147,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,26 +1326,19 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1381,7 +1365,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,16 +1402,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1449,10 +1433,44 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1758,36 +1776,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="26"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="26"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="26"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -1798,132 +1816,132 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="35" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="35" t="s">
-        <v>45</v>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="31" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
-        <v>35</v>
+      <c r="B8" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="33" t="s">
+      <c r="D8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="34" t="s">
-        <v>50</v>
+      <c r="J9" s="23"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="10"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="35" t="s">
-        <v>58</v>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
-        <v>34</v>
+      <c r="B12" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>121</v>
+      <c r="F12" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="32" t="s">
-        <v>42</v>
+      <c r="L12" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="34" t="s">
-        <v>67</v>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1933,71 +1951,71 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="35" t="s">
-        <v>30</v>
+      <c r="B15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
-        <v>36</v>
+      <c r="B16" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>55</v>
+      <c r="D16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>44</v>
+      <c r="H16" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="32" t="s">
-        <v>29</v>
+      <c r="L16" s="28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="34" t="s">
-        <v>57</v>
+      <c r="B17" s="32"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="31"/>
+      <c r="D18" s="27"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="16"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K26" s="1"/>
@@ -2030,24 +2048,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="G3" s="38" t="s">
-        <v>97</v>
+      <c r="G3" s="34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="G5" s="38" t="s">
+      <c r="D5" s="34"/>
+      <c r="G5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="J5" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="H5" s="34"/>
+      <c r="J5" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -2055,63 +2073,63 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="41" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="41" t="s">
-        <v>45</v>
+      <c r="F8" s="16"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="37" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
-        <v>94</v>
+      <c r="B9" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="40" t="s">
-        <v>23</v>
+      <c r="D9" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>24</v>
+      <c r="H9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="40" t="s">
-        <v>41</v>
+      <c r="L9" s="36" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="42" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="42" t="s">
-        <v>50</v>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2119,60 +2137,60 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="41" t="s">
-        <v>58</v>
+      <c r="B12" s="35"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="37" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
-        <v>34</v>
+      <c r="B13" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>99</v>
+      <c r="F13" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>93</v>
+      <c r="H13" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="40" t="s">
-        <v>42</v>
+      <c r="L13" s="36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="42" t="s">
-        <v>67</v>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2181,60 +2199,60 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="41" t="s">
-        <v>30</v>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
-        <v>36</v>
+      <c r="B17" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>95</v>
+      <c r="D17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>28</v>
+      <c r="H17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="40" t="s">
-        <v>29</v>
+      <c r="L17" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="42" t="s">
-        <v>57</v>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
@@ -2242,11 +2260,11 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="53"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="49"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2256,107 +2274,107 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="45"/>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="41" t="s">
+      <c r="B24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="41" t="s">
-        <v>41</v>
+      <c r="F24" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="46"/>
+      <c r="L24" s="37" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="21"/>
-      <c r="F25" s="24"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="17"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="25"/>
-      <c r="J25" s="24"/>
+      <c r="H25" s="21"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="25"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="40" t="s">
+      <c r="B26" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="49" t="s">
-        <v>101</v>
+      <c r="F26" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>106</v>
+      <c r="H26" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>99</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="40" t="s">
-        <v>102</v>
+      <c r="L26" s="36" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="17"/>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="25"/>
-      <c r="J27" s="24"/>
+      <c r="H27" s="21"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="25"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="42" t="s">
-        <v>29</v>
+      <c r="B28" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="48"/>
+      <c r="L28" s="38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -2397,244 +2415,244 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C2" s="54"/>
-      <c r="D2" s="87" t="s">
-        <v>127</v>
+      <c r="C2" s="50"/>
+      <c r="D2" s="80" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
-        <v>104</v>
+      <c r="B4" s="55" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="59" t="s">
-        <v>118</v>
+      <c r="D4" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="55" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="55"/>
+        <v>61</v>
+      </c>
+      <c r="C5" s="51"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="70" t="s">
+      <c r="D6" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="66" t="s">
-        <v>80</v>
+      <c r="F6" s="62" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="61" t="s">
-        <v>71</v>
+      <c r="B7" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="57" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="67" t="s">
-        <v>61</v>
+      <c r="F7" s="63" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="62"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>60</v>
+      <c r="B9" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="62"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="62"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="64" t="s">
-        <v>73</v>
+      <c r="B11" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="60" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="69" t="s">
-        <v>52</v>
+      <c r="F11" s="65" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>79</v>
+      <c r="D14" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="53"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="58"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="53"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="54"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="67" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="53"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="58"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="68" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="53"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="57"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="58"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="58"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="62"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="62"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="69" t="s">
-        <v>70</v>
-      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="73" t="s">
-        <v>78</v>
+      <c r="F27" s="69" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -2643,7 +2661,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2653,26 +2671,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:K26"/>
+  <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="69.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="47.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="69.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2683,323 +2705,431 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="79" t="s">
-        <v>12</v>
+      <c r="E4" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="126"/>
+      <c r="I4" s="131" t="s">
+        <v>141</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="126"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="75"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="135"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C8" s="132"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="80"/>
+      <c r="E8" s="129" t="s">
+        <v>133</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="4"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="127"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="E12" s="129" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="127"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="75"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="135"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="127"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="C15" s="133"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="75"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="135"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="127"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="74" t="s">
+      <c r="E18" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="127"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="78"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
+      <c r="I19" s="135"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="74"/>
+      <c r="L19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="127"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="4"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="4"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="77" t="s">
-        <v>59</v>
-      </c>
+      <c r="E22" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="127"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="128"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="79" t="s">
-        <v>32</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3008,63 +3138,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016E63C5-1E26-4250-84D8-DA14F6C5AC63}">
-  <dimension ref="B2:M90"/>
+  <dimension ref="C2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="61.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="49" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="68.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="89" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="H2" s="84" t="s">
-        <v>123</v>
+      <c r="H2" s="78" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="3:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="H4" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="H4" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="6" spans="3:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="26"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="26"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="30"/>
+      <c r="L6" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="26"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
@@ -3075,205 +3206,205 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="35" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="108" t="s">
+      <c r="G9" s="96"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="107"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="92"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="108"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="93"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="94"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="21"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="91"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="110"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="102" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="99"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="108"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="95"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="94"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="21"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="91"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="91"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="110"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="114"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="108" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="32" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="109" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="99"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="110" t="s">
+    </row>
+    <row r="19" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="32"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="105"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="111"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="106" t="s">
         <v>50</v>
-      </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="100"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="101"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="25"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="98"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="117"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="107" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="109" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="24"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="115"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="110" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="102"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="101"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="25"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="25"/>
-    </row>
-    <row r="17" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="98"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="117"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="111" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="36"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="112"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="118"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="113" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="22.5" x14ac:dyDescent="0.3">
@@ -3281,11 +3412,11 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="53"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="49"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -3293,566 +3424,679 @@
     </row>
     <row r="24" spans="3:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="34" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="45"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="3:13" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="38" t="s">
-        <v>22</v>
+      <c r="L25" s="34" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C27" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="90" t="s">
+      <c r="C27" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="90" t="s">
-        <v>41</v>
+      <c r="G27" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="46"/>
+      <c r="M27" s="83" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="120"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="91"/>
-      <c r="G28" s="105"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="84"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="127"/>
-      <c r="K28" s="105"/>
+      <c r="I28" s="120"/>
+      <c r="K28" s="98"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="127"/>
+      <c r="M28" s="120"/>
     </row>
     <row r="29" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="121" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="92" t="s">
+      <c r="C29" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="124" t="s">
-        <v>135</v>
+      <c r="G29" s="117" t="s">
+        <v>127</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="128" t="s">
-        <v>106</v>
+      <c r="I29" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="121" t="s">
+        <v>99</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="92" t="s">
-        <v>102</v>
+      <c r="M29" s="85" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="120"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="91"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="84"/>
       <c r="F30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="125"/>
+        <v>93</v>
+      </c>
+      <c r="G30" s="118"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="127"/>
-      <c r="K30" s="105"/>
+      <c r="I30" s="120"/>
+      <c r="K30" s="98"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="127"/>
+      <c r="M30" s="120"/>
     </row>
     <row r="31" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="126" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="52"/>
-      <c r="M31" s="93" t="s">
-        <v>29</v>
+      <c r="C31" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="48"/>
+      <c r="M31" s="86" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:9" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="G35" s="88" t="s">
-        <v>139</v>
+      <c r="G35" s="81" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="129" t="s">
-        <v>104</v>
+      <c r="E38" s="122" t="s">
+        <v>97</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="129" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="129" t="s">
-        <v>138</v>
+      <c r="G38" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="122" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="55"/>
+        <v>61</v>
+      </c>
+      <c r="F39" s="51"/>
     </row>
     <row r="40" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="70" t="s">
+      <c r="G40" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="66" t="s">
-        <v>80</v>
+      <c r="I40" s="62" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="61" t="s">
-        <v>71</v>
+      <c r="E41" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="57" t="s">
+        <v>64</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="67" t="s">
-        <v>61</v>
+      <c r="I41" s="63" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="57"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="62"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="58"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="62"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" s="68" t="s">
-        <v>60</v>
+      <c r="E43" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="57" t="s">
+      <c r="E44" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="62"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="58"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="62"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="64" t="s">
-        <v>73</v>
+      <c r="E45" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="60" t="s">
+        <v>66</v>
       </c>
       <c r="H45" s="3"/>
-      <c r="I45" s="69" t="s">
-        <v>52</v>
+      <c r="I45" s="65" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="48" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="70" t="s">
+      <c r="F48" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="G48" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="66" t="s">
-        <v>79</v>
+      <c r="G48" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="56" t="s">
-        <v>130</v>
+      <c r="E49" s="52" t="s">
+        <v>122</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="71" t="s">
-        <v>74</v>
+      <c r="G49" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="H49" s="3"/>
-      <c r="I49" s="67" t="s">
+      <c r="I49" s="63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="53"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="58"/>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="53"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="53"/>
+    </row>
+    <row r="53" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="54"/>
+    </row>
+    <row r="55" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="54"/>
+    </row>
+    <row r="56" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E57" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="57"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="62"/>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="I51" s="68" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E58" s="53"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="58"/>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E59" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E60" s="53"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="58"/>
+    </row>
+    <row r="61" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="57"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="57"/>
-    </row>
-    <row r="53" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="G54" s="58"/>
-    </row>
-    <row r="55" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="58"/>
-    </row>
-    <row r="56" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F56" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E57" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E58" s="57"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="62"/>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E59" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="I59" s="68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E60" s="57"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="62"/>
-    </row>
-    <row r="61" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="69" t="s">
-        <v>70</v>
-      </c>
       <c r="H61" s="3"/>
-      <c r="I61" s="73" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="5:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="H64" s="130" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="79" t="s">
-        <v>33</v>
+      <c r="I61" s="69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="126"/>
+      <c r="G67" s="131" t="s">
+        <v>141</v>
       </c>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="I67" s="125" t="s">
+        <v>142</v>
+      </c>
       <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E68" s="6"/>
+      <c r="K67" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="131" t="s">
-        <v>12</v>
-      </c>
+      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C69" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="126"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="134"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="I69" s="137" t="s">
+        <v>15</v>
+      </c>
       <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="4"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="74" t="s">
-        <v>21</v>
-      </c>
+      <c r="G70" s="135"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="75"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C71" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="127"/>
+      <c r="G71" s="135"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E72" s="6"/>
+      <c r="I71" s="138" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="76" t="s">
-        <v>7</v>
-      </c>
+      <c r="G72" s="135"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="6"/>
-    </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="75"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="127"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="128"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="6"/>
+      <c r="I73" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="77" t="s">
-        <v>54</v>
-      </c>
+      <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="8"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C75" s="129" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="127"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="134"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="I75" s="137" t="s">
+        <v>79</v>
+      </c>
       <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E76" s="6"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="74" t="s">
-        <v>86</v>
-      </c>
+      <c r="G76" s="135"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="I76" s="71"/>
       <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="75"/>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C77" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="127"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="127"/>
+      <c r="G77" s="135"/>
       <c r="H77" s="4"/>
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E78" s="6"/>
+      <c r="I77" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="76" t="s">
-        <v>51</v>
-      </c>
+      <c r="G78" s="135"/>
       <c r="H78" s="4"/>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="75"/>
+      <c r="I78" s="140"/>
+      <c r="J78" s="4"/>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="127"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="127"/>
+      <c r="G79" s="128"/>
       <c r="H79" s="4"/>
-      <c r="J79" s="6"/>
-    </row>
-    <row r="80" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="6"/>
+      <c r="I79" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="77" t="s">
-        <v>53</v>
-      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C81" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="127"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="134"/>
       <c r="H81" s="4"/>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E82" s="6"/>
+      <c r="I81" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="74" t="s">
-        <v>10</v>
-      </c>
+      <c r="G82" s="135"/>
       <c r="H82" s="4"/>
+      <c r="I82" s="141"/>
       <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="78"/>
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C83" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="127"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="135"/>
       <c r="H83" s="4"/>
+      <c r="I83" s="138" t="s">
+        <v>14</v>
+      </c>
       <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E84" s="6"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="76" t="s">
-        <v>20</v>
-      </c>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="136"/>
       <c r="H84" s="4"/>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E85" s="10"/>
+      <c r="I84" s="140"/>
+      <c r="J84" s="4"/>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="127"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="75"/>
+      <c r="G85" s="128"/>
       <c r="H85" s="4"/>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I85" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="J85" s="4"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="77" t="s">
-        <v>59</v>
-      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I86" s="142"/>
+      <c r="J86" s="4"/>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="15"/>
+      <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="J87" s="6"/>
-    </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I87" s="142"/>
+      <c r="J87" s="4"/>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I88" s="143"/>
+      <c r="J88" s="4"/>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="11"/>
+      <c r="G89" s="4"/>
       <c r="H89" s="4"/>
+      <c r="I89" s="144" t="s">
+        <v>26</v>
+      </c>
       <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" s="4"/>
-      <c r="J90" s="6"/>
+      <c r="L89" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
